--- a/Tables/Test.xlsx
+++ b/Tables/Test.xlsx
@@ -11,39 +11,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>1231</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>C</t>
+    <t>string</t>
   </si>
   <si>
-    <t>D</t>
+    <t>List&lt;string&gt;</t>
   </si>
   <si>
-    <t>1</t>
+    <t>asd</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>a,b,c</t>
   </si>
 </sst>
 </file>
@@ -88,7 +73,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -101,67 +86,37 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
